--- a/delta2/lib_evidence/eid-htool.xlsx
+++ b/delta2/lib_evidence/eid-htool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB7357-41A7-114B-828E-33425C6D4136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B00CF6-C843-6B4A-93C0-82D784BE4F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="429" r:id="rId12"/>
-    <pivotCache cacheId="430" r:id="rId13"/>
-    <pivotCache cacheId="431" r:id="rId14"/>
-    <pivotCache cacheId="432" r:id="rId15"/>
+    <pivotCache cacheId="216" r:id="rId12"/>
+    <pivotCache cacheId="217" r:id="rId13"/>
+    <pivotCache cacheId="218" r:id="rId14"/>
+    <pivotCache cacheId="219" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
   <si>
     <t>delta_pid</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>process_account</t>
+  </si>
+  <si>
+    <t>adfind</t>
+  </si>
+  <si>
+    <t>rclone</t>
   </si>
 </sst>
 </file>
@@ -13527,7 +13533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="429" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -13656,7 +13662,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="430" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="217" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -13735,7 +13741,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="431" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="218" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -13825,7 +13831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="432" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="219" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -14400,9 +14406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14463,6 +14469,9 @@
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
@@ -14475,6 +14484,9 @@
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
@@ -14487,6 +14499,9 @@
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
@@ -14499,6 +14514,9 @@
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
@@ -14511,6 +14529,9 @@
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
@@ -14523,6 +14544,9 @@
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
@@ -14535,6 +14559,9 @@
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
@@ -14547,6 +14574,9 @@
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>68</v>
       </c>
@@ -14559,6 +14589,9 @@
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
@@ -14571,6 +14604,9 @@
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
@@ -14583,6 +14619,9 @@
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
@@ -14595,6 +14634,9 @@
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>75</v>
       </c>
@@ -14607,6 +14649,9 @@
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
@@ -14618,6 +14663,9 @@
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
